--- a/PCB/Project Outputs for PCB/PCB.xlsx
+++ b/PCB/Project Outputs for PCB/PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99256a3a2149e470/Documenten/Schooljaar 2019-2020 Bac1 E_ICT/PE/Securifi/PCB/Project Outputs for PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EB9F9A-86FE-4957-ACAE-2B2DE6DFABDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{50EB9F9A-86FE-4957-ACAE-2B2DE6DFABDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B29B9106-62AD-421C-A99C-1D185C4C049F}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{6733BECA-5E84-4681-9356-8F944905A961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6733BECA-5E84-4681-9356-8F944905A961}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,6 +366,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,7 +690,9 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -827,7 +838,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -865,7 +876,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">

--- a/PCB/Project Outputs for PCB/PCB.xlsx
+++ b/PCB/Project Outputs for PCB/PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99256a3a2149e470/Documenten/Schooljaar 2019-2020 Bac1 E_ICT/PE/Securifi/PCB/Project Outputs for PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{50EB9F9A-86FE-4957-ACAE-2B2DE6DFABDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B29B9106-62AD-421C-A99C-1D185C4C049F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{62859A88-EF5F-43E4-BA9D-5136E04CE2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F28C37E2-137F-4A6A-AC45-C8466F537F78}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6733BECA-5E84-4681-9356-8F944905A961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{811E58AF-B51D-4CF5-B49C-CCCC83561DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Comment</t>
   </si>
@@ -245,6 +245,12 @@
     <t>R5</t>
   </si>
   <si>
+    <t xml:space="preserve"> CRCW06031K80FKEA</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
+  </si>
+  <si>
     <t>ATMEGA328P-MU</t>
   </si>
   <si>
@@ -294,19 +300,29 @@
   </si>
   <si>
     <t>XTAL</t>
+  </si>
+  <si>
+    <t>0473001.MRT1L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,7 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -684,14 +701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D85A259-4BFD-4105-AA82-F73191CBF80C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA020CB9-DCFD-422B-A22F-04606D48050B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,8 +796,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1035,41 +1054,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1077,47 +1096,67 @@
     </row>
     <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="4">
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>